--- a/example_data/EMA/label_corrected/aloxi-epar-scientific-discussion_en.xlsx
+++ b/example_data/EMA/label_corrected/aloxi-epar-scientific-discussion_en.xlsx
@@ -9260,7 +9260,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>populations - pediatric || populations - geriatric</t>
+          <t>populations - geriatric || populations - pediatric</t>
         </is>
       </c>
       <c r="I256" t="inlineStr"/>
